--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1104160.472007606</v>
+        <v>1107315.391349829</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11168717.6589105</v>
+        <v>10912284.68722686</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>77.42639794035608</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>94.81275980261395</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>135.8241034250906</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346968</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.14763241892681</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>83.41943806107159</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>13.42874471570696</v>
       </c>
       <c r="U7" t="n">
-        <v>131.3542190999252</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>205.1127822067379</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.9812949757258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347161</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>113.8650058569172</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>50.06209150957608</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>79.54367350501143</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>227.5051487593428</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>11.88284096151539</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9.795251606876452</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>101.6969570046979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>155.1980648094029</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.92158678358429</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428207</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>114.5120075176649</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>108.6115798077503</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.02467705292101</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2065.110222835251</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C2" t="n">
-        <v>1696.147705894839</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,25 +4330,25 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052367</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>3215.315153136265</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2841.849394875185</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y2" t="n">
-        <v>2451.710062899373</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="3">
@@ -4403,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218339</v>
@@ -4494,19 +4494,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4515,25 +4515,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1700.268026780272</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1478.501411349798</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.501411349798</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180638</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180638</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4731,19 +4731,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U7" t="n">
-        <v>1794.613518694628</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V7" t="n">
-        <v>1539.929030488741</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W7" t="n">
-        <v>1250.51186045178</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2212.771568013855</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1843.809051073444</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1485.543352466693</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>1099.755099868449</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389511</v>
+        <v>688.7691950788414</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>273.6967449238379</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912086</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136264</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875184</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2599.371408077977</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4950,55 +4950,55 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
         <v>1478.501411349798</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2320.781373948479</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>462.6853918125577</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876693</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>293.7492088846508</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>994.1614947556907</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>635.8957961489402</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>635.8957961489402</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>635.8957961489402</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075821</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836018</v>
+        <v>690.674942710575</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556949</v>
+        <v>521.7387597826681</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556949</v>
+        <v>371.6221203703324</v>
       </c>
       <c r="E16" t="n">
-        <v>417.7969033733018</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F16" t="n">
-        <v>270.9069558753914</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G16" t="n">
-        <v>103.7108565902714</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138415</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>363.7369613277364</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>363.7369613277364</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>363.7369613277364</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>196.5408620426163</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,49 +5755,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836023</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556954</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6129,22 +6129,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6475,19 +6475,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101294</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="38">
@@ -7168,43 +7168,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>129.195124717589</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7429,10 +7429,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>255.8660948215519</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>98.55338150863628</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>66.89028914155774</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>183.4165768941106</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>134.5511216850538</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>130.4994612393474</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>38.59775584152591</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>133.6938862346281</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864917</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>65.31997266427237</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>71.22040037418695</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>961816.0218660283</v>
+        <v>814761.9498119348</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>961816.0218660282</v>
+        <v>814761.9498119347</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660281</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>961816.0218660284</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>961816.0218660283</v>
+        <v>961816.0218660282</v>
       </c>
     </row>
     <row r="15">
@@ -26316,28 +26316,28 @@
         <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
+        <v>392146.6638165589</v>
+      </c>
+      <c r="F2" t="n">
+        <v>392146.663816559</v>
+      </c>
+      <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="F2" t="n">
-        <v>464109.2948217537</v>
-      </c>
-      <c r="G2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
@@ -26349,13 +26349,13 @@
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26371,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>309843.0334598199</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545136</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820644</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820639</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820645</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14040.01085717763</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26478,16 +26478,16 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>101122.5298239071</v>
-      </c>
-      <c r="G5" t="n">
-        <v>101122.5298239072</v>
-      </c>
-      <c r="H5" t="n">
-        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1057983.455465229</v>
       </c>
       <c r="C6" t="n">
+        <v>270761.2902623636</v>
+      </c>
+      <c r="D6" t="n">
         <v>270761.2902623634</v>
       </c>
-      <c r="D6" t="n">
-        <v>270761.2902623633</v>
-      </c>
       <c r="E6" t="n">
-        <v>23010.17185927872</v>
+        <v>303452.6934681819</v>
       </c>
       <c r="F6" t="n">
-        <v>348422.6336666346</v>
+        <v>303452.6934681819</v>
       </c>
       <c r="G6" t="n">
-        <v>348422.6336666343</v>
+        <v>38892.24153573599</v>
       </c>
       <c r="H6" t="n">
-        <v>348422.6336666346</v>
+        <v>348735.2749955559</v>
       </c>
       <c r="I6" t="n">
-        <v>348422.6336666347</v>
+        <v>348735.2749955556</v>
       </c>
       <c r="J6" t="n">
-        <v>130891.4312693574</v>
+        <v>131204.0725982785</v>
       </c>
       <c r="K6" t="n">
-        <v>348422.6336666345</v>
+        <v>348735.2749955558</v>
       </c>
       <c r="L6" t="n">
-        <v>348422.6336666345</v>
+        <v>348735.2749955558</v>
       </c>
       <c r="M6" t="n">
-        <v>263367.6057311225</v>
+        <v>348735.2749955558</v>
       </c>
       <c r="N6" t="n">
-        <v>348422.6336666345</v>
+        <v>348735.2749955558</v>
       </c>
       <c r="O6" t="n">
-        <v>348422.6336666345</v>
+        <v>266599.4444001044</v>
       </c>
       <c r="P6" t="n">
-        <v>348422.6336666347</v>
+        <v>348735.2749955558</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,31 +26792,31 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>277.2566436803269</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.9183408758551</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>53.94492190635137</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>69.34270184147235</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>358.5862092445537</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>286.3116626173975</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>206.1202045604622</v>
       </c>
       <c r="U7" t="n">
-        <v>154.8576191056877</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>89.49498218058253</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>277.2566436803277</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V10" t="n">
-        <v>94.35543628911191</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31396,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31445,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31463,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>573.8098963904295</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192546</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>431.6758624684112</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366966</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359212</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
